--- a/集計くんPro_01/test_data/集計先.xlsx
+++ b/集計くんPro_01/test_data/集計先.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KCC\Aggregate\Script_01\集計くんPro\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aggregate_Pro\集計くんPro_01\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70497A0A-AB29-4384-82F4-FE9168878B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E3588-F7D2-4A30-B37D-A59D9BD47B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" tabRatio="567" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="567" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="10" r:id="rId1"/>
@@ -1430,29 +1430,53 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="30">
+        <v>641</v>
+      </c>
+      <c r="D4" s="31">
+        <v>2103</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1946</v>
+      </c>
+      <c r="F4" s="31">
+        <v>3648</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1550</v>
+      </c>
+      <c r="H4" s="31">
+        <v>2352</v>
+      </c>
       <c r="I4" s="32">
         <f t="shared" ref="I4:I10" si="0">SUM(C4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+        <v>12240</v>
+      </c>
+      <c r="J4" s="31">
+        <v>550</v>
+      </c>
+      <c r="K4" s="31">
+        <v>560</v>
+      </c>
+      <c r="L4" s="31">
+        <v>570</v>
+      </c>
+      <c r="M4" s="31">
+        <v>580</v>
+      </c>
+      <c r="N4" s="31">
+        <v>590</v>
+      </c>
+      <c r="O4" s="31">
+        <v>12540</v>
+      </c>
       <c r="P4" s="32">
         <f t="shared" ref="P4:P10" si="1">SUM(J4:O4)</f>
-        <v>0</v>
+        <v>15390</v>
       </c>
       <c r="Q4" s="33">
         <f t="shared" ref="Q4:Q10" si="2">I4+P4</f>
-        <v>0</v>
+        <v>27630</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="19"/>
@@ -1495,29 +1519,53 @@
       <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="C5" s="30">
+        <v>400</v>
+      </c>
+      <c r="D5" s="31">
+        <v>400</v>
+      </c>
+      <c r="E5" s="31">
+        <v>400</v>
+      </c>
+      <c r="F5" s="31">
+        <v>400</v>
+      </c>
+      <c r="G5" s="31">
+        <v>400</v>
+      </c>
+      <c r="H5" s="31">
+        <v>400</v>
+      </c>
       <c r="I5" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+        <v>2400</v>
+      </c>
+      <c r="J5" s="31">
+        <v>400</v>
+      </c>
+      <c r="K5" s="31">
+        <v>400</v>
+      </c>
+      <c r="L5" s="31">
+        <v>400</v>
+      </c>
+      <c r="M5" s="31">
+        <v>400</v>
+      </c>
+      <c r="N5" s="31">
+        <v>400</v>
+      </c>
+      <c r="O5" s="31">
+        <v>400</v>
+      </c>
       <c r="P5" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="Q5" s="32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="19"/>
@@ -1560,29 +1608,53 @@
       <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="C6" s="30">
+        <v>45</v>
+      </c>
+      <c r="D6" s="31">
+        <v>45</v>
+      </c>
+      <c r="E6" s="31">
+        <v>45</v>
+      </c>
+      <c r="F6" s="31">
+        <v>45</v>
+      </c>
+      <c r="G6" s="31">
+        <v>45</v>
+      </c>
+      <c r="H6" s="31">
+        <v>45</v>
+      </c>
       <c r="I6" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+        <v>270</v>
+      </c>
+      <c r="J6" s="31">
+        <v>45</v>
+      </c>
+      <c r="K6" s="31">
+        <v>45</v>
+      </c>
+      <c r="L6" s="31">
+        <v>45</v>
+      </c>
+      <c r="M6" s="31">
+        <v>45</v>
+      </c>
+      <c r="N6" s="31">
+        <v>45</v>
+      </c>
+      <c r="O6" s="31">
+        <v>45</v>
+      </c>
       <c r="P6" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="19"/>
@@ -1849,63 +1921,63 @@
       <c r="B11" s="44"/>
       <c r="C11" s="45">
         <f>SUM(C4:C10)</f>
-        <v>0</v>
+        <v>1086</v>
       </c>
       <c r="D11" s="45">
         <f t="shared" ref="D11:Q11" si="6">SUM(D4:D10)</f>
-        <v>0</v>
+        <v>2548</v>
       </c>
       <c r="E11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2391</v>
       </c>
       <c r="F11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4093</v>
       </c>
       <c r="G11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="H11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2797</v>
       </c>
       <c r="I11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>14910</v>
       </c>
       <c r="J11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="K11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="L11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="M11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="N11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="O11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12985</v>
       </c>
       <c r="P11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18060</v>
       </c>
       <c r="Q11" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32970</v>
       </c>
       <c r="R11" s="46"/>
       <c r="S11" s="19"/>
@@ -2033,12 +2105,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CategoryTag1 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
+    <TaxCatchAll xmlns="798f16ab-5b94-4383-b991-fd30b24dfbf2" xsi:nil="true"/>
+    <CategoryTag3 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <CategoryTag2 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2331,23 +2408,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CategoryTag1 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
-    <TaxCatchAll xmlns="798f16ab-5b94-4383-b991-fd30b24dfbf2" xsi:nil="true"/>
-    <CategoryTag3 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <CategoryTag2 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14038804-2345-49FB-ABEE-084151129373}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E46C992-9825-4B0F-8EDD-CE66246C6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee8c6f52-211c-4a8d-9d5a-5e974d509624"/>
+    <ds:schemaRef ds:uri="798f16ab-5b94-4383-b991-fd30b24dfbf2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2372,12 +2447,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E46C992-9825-4B0F-8EDD-CE66246C6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14038804-2345-49FB-ABEE-084151129373}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee8c6f52-211c-4a8d-9d5a-5e974d509624"/>
-    <ds:schemaRef ds:uri="798f16ab-5b94-4383-b991-fd30b24dfbf2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/集計くんPro_01/test_data/集計先.xlsx
+++ b/集計くんPro_01/test_data/集計先.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aggregate_Pro\集計くんPro_01\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KCC\Aggregate\Script_01\集計くんPro\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E3588-F7D2-4A30-B37D-A59D9BD47B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70497A0A-AB29-4384-82F4-FE9168878B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="567" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" tabRatio="567" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="10" r:id="rId1"/>
@@ -1430,53 +1430,29 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30">
-        <v>641</v>
-      </c>
-      <c r="D4" s="31">
-        <v>2103</v>
-      </c>
-      <c r="E4" s="31">
-        <v>1946</v>
-      </c>
-      <c r="F4" s="31">
-        <v>3648</v>
-      </c>
-      <c r="G4" s="31">
-        <v>1550</v>
-      </c>
-      <c r="H4" s="31">
-        <v>2352</v>
-      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="32">
         <f t="shared" ref="I4:I10" si="0">SUM(C4:H4)</f>
-        <v>12240</v>
-      </c>
-      <c r="J4" s="31">
-        <v>550</v>
-      </c>
-      <c r="K4" s="31">
-        <v>560</v>
-      </c>
-      <c r="L4" s="31">
-        <v>570</v>
-      </c>
-      <c r="M4" s="31">
-        <v>580</v>
-      </c>
-      <c r="N4" s="31">
-        <v>590</v>
-      </c>
-      <c r="O4" s="31">
-        <v>12540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="32">
         <f t="shared" ref="P4:P10" si="1">SUM(J4:O4)</f>
-        <v>15390</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="33">
         <f t="shared" ref="Q4:Q10" si="2">I4+P4</f>
-        <v>27630</v>
+        <v>0</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="19"/>
@@ -1519,53 +1495,29 @@
       <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30">
-        <v>400</v>
-      </c>
-      <c r="D5" s="31">
-        <v>400</v>
-      </c>
-      <c r="E5" s="31">
-        <v>400</v>
-      </c>
-      <c r="F5" s="31">
-        <v>400</v>
-      </c>
-      <c r="G5" s="31">
-        <v>400</v>
-      </c>
-      <c r="H5" s="31">
-        <v>400</v>
-      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="32">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="J5" s="31">
-        <v>400</v>
-      </c>
-      <c r="K5" s="31">
-        <v>400</v>
-      </c>
-      <c r="L5" s="31">
-        <v>400</v>
-      </c>
-      <c r="M5" s="31">
-        <v>400</v>
-      </c>
-      <c r="N5" s="31">
-        <v>400</v>
-      </c>
-      <c r="O5" s="31">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
       <c r="P5" s="32">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="32">
         <f t="shared" si="2"/>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="19"/>
@@ -1608,53 +1560,29 @@
       <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30">
-        <v>45</v>
-      </c>
-      <c r="D6" s="31">
-        <v>45</v>
-      </c>
-      <c r="E6" s="31">
-        <v>45</v>
-      </c>
-      <c r="F6" s="31">
-        <v>45</v>
-      </c>
-      <c r="G6" s="31">
-        <v>45</v>
-      </c>
-      <c r="H6" s="31">
-        <v>45</v>
-      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="32">
         <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J6" s="31">
-        <v>45</v>
-      </c>
-      <c r="K6" s="31">
-        <v>45</v>
-      </c>
-      <c r="L6" s="31">
-        <v>45</v>
-      </c>
-      <c r="M6" s="31">
-        <v>45</v>
-      </c>
-      <c r="N6" s="31">
-        <v>45</v>
-      </c>
-      <c r="O6" s="31">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
       <c r="P6" s="32">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="32">
         <f t="shared" si="2"/>
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="19"/>
@@ -1921,63 +1849,63 @@
       <c r="B11" s="44"/>
       <c r="C11" s="45">
         <f>SUM(C4:C10)</f>
-        <v>1086</v>
+        <v>0</v>
       </c>
       <c r="D11" s="45">
         <f t="shared" ref="D11:Q11" si="6">SUM(D4:D10)</f>
-        <v>2548</v>
+        <v>0</v>
       </c>
       <c r="E11" s="45">
         <f t="shared" si="6"/>
-        <v>2391</v>
+        <v>0</v>
       </c>
       <c r="F11" s="45">
         <f t="shared" si="6"/>
-        <v>4093</v>
+        <v>0</v>
       </c>
       <c r="G11" s="45">
         <f t="shared" si="6"/>
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="H11" s="45">
         <f t="shared" si="6"/>
-        <v>2797</v>
+        <v>0</v>
       </c>
       <c r="I11" s="45">
         <f t="shared" si="6"/>
-        <v>14910</v>
+        <v>0</v>
       </c>
       <c r="J11" s="45">
         <f t="shared" si="6"/>
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="K11" s="45">
         <f t="shared" si="6"/>
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="L11" s="45">
         <f t="shared" si="6"/>
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="M11" s="45">
         <f t="shared" si="6"/>
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="N11" s="45">
         <f t="shared" si="6"/>
-        <v>1035</v>
+        <v>0</v>
       </c>
       <c r="O11" s="45">
         <f t="shared" si="6"/>
-        <v>12985</v>
+        <v>0</v>
       </c>
       <c r="P11" s="45">
         <f t="shared" si="6"/>
-        <v>18060</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="45">
         <f t="shared" si="6"/>
-        <v>32970</v>
+        <v>0</v>
       </c>
       <c r="R11" s="46"/>
       <c r="S11" s="19"/>
@@ -2105,17 +2033,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CategoryTag1 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
-    <TaxCatchAll xmlns="798f16ab-5b94-4383-b991-fd30b24dfbf2" xsi:nil="true"/>
-    <CategoryTag3 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <CategoryTag2 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2408,21 +2331,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CategoryTag1 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
+    <TaxCatchAll xmlns="798f16ab-5b94-4383-b991-fd30b24dfbf2" xsi:nil="true"/>
+    <CategoryTag3 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <CategoryTag2 xmlns="ee8c6f52-211c-4a8d-9d5a-5e974d509624" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E46C992-9825-4B0F-8EDD-CE66246C6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14038804-2345-49FB-ABEE-084151129373}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee8c6f52-211c-4a8d-9d5a-5e974d509624"/>
-    <ds:schemaRef ds:uri="798f16ab-5b94-4383-b991-fd30b24dfbf2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2447,9 +2372,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14038804-2345-49FB-ABEE-084151129373}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E46C992-9825-4B0F-8EDD-CE66246C6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee8c6f52-211c-4a8d-9d5a-5e974d509624"/>
+    <ds:schemaRef ds:uri="798f16ab-5b94-4383-b991-fd30b24dfbf2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>